--- a/112-2/INTRODUCTION TO MATLAB PROGRAMMING/assignment_midterm_grade.xlsx
+++ b/112-2/INTRODUCTION TO MATLAB PROGRAMMING/assignment_midterm_grade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FCU\112-2\INTRODUCTION TO MATLAB PROGRAMMING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4A0809-F317-4300-98E4-C6250C68320B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8D8790-C048-45FA-9D37-0938F891620E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -437,7 +437,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -840,18 +840,18 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.2109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -889,7 +889,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -927,7 +927,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.2">
+    <row r="3" spans="1:12" ht="16.149999999999999" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -965,7 +965,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16.2">
+    <row r="4" spans="1:12" ht="16.149999999999999" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16.2">
+    <row r="5" spans="1:12" ht="16.149999999999999" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16.2">
+    <row r="6" spans="1:12" ht="16.149999999999999" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16.2">
+    <row r="7" spans="1:12" ht="16.149999999999999" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16.2">
+    <row r="8" spans="1:12" ht="16.149999999999999" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16.2">
+    <row r="9" spans="1:12" ht="16.149999999999999" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16.2">
+    <row r="10" spans="1:12" ht="16.149999999999999" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16.2">
+    <row r="11" spans="1:12" ht="16.149999999999999" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="16.2">
+    <row r="12" spans="1:12" ht="16.149999999999999" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1292,22 +1292,22 @@
         <v>100</v>
       </c>
       <c r="H12" s="8">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I12" s="8">
         <v>85</v>
       </c>
       <c r="J12" s="7">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="K12" s="8">
         <v>90</v>
       </c>
       <c r="L12" s="8">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="16.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16.149999999999999" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="16.2">
+    <row r="14" spans="1:12" ht="16.149999999999999" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="16.2">
+    <row r="15" spans="1:12" ht="16.149999999999999" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="16.2">
+    <row r="16" spans="1:12" ht="16.149999999999999" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="16.2">
+    <row r="17" spans="1:12" ht="16.149999999999999" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="16.2">
+    <row r="18" spans="1:12" ht="16.149999999999999" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="16.2">
+    <row r="19" spans="1:12" ht="16.149999999999999" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="16.2">
+    <row r="20" spans="1:12" ht="16.149999999999999" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="16.2">
+    <row r="21" spans="1:12" ht="16.149999999999999" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="16.2">
+    <row r="22" spans="1:12" ht="16.149999999999999" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>21</v>
       </c>

--- a/112-2/INTRODUCTION TO MATLAB PROGRAMMING/assignment_midterm_grade.xlsx
+++ b/112-2/INTRODUCTION TO MATLAB PROGRAMMING/assignment_midterm_grade.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FCU\112-2\INTRODUCTION TO MATLAB PROGRAMMING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8D8790-C048-45FA-9D37-0938F891620E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B81C3A-4781-48D6-9248-F6DC092D4964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="score" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -839,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
